--- a/documentacionSistemas/amibComunes/registroComponentesComunes.xlsx
+++ b/documentacionSistemas/amibComunes/registroComponentesComunes.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$F$6</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>REGISTRO DE COMPONENTES COMUNES DE LOS PROYECTOS AMIB</t>
   </si>
@@ -79,6 +82,12 @@
   </si>
   <si>
     <t>Proporciona métodos y clases empleadas en todos los sistemas AMIB, para facilitar el procesamiento de información</t>
+  </si>
+  <si>
+    <t>SustentanteTO</t>
+  </si>
+  <si>
+    <t>Clase que representa objeto de transporte para entidad Sustentante</t>
   </si>
 </sst>
 </file>
@@ -447,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -535,10 +544,18 @@
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>41692</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -911,6 +928,7 @@
       <c r="G48" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:F6"/>
   <sortState ref="A5:F6">
     <sortCondition ref="C5"/>
   </sortState>
@@ -984,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
